--- a/matching.xlsx
+++ b/matching.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\enactus\marriage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\enactus\matching_enactus_munich\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0812554-FC77-4D0C-B600-A0BE8911A7E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181C95ED-CCCC-4B36-BE63-911B4FA59C56}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{56C337D5-B961-45EE-8A28-74B7195177F2}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{56C337D5-B961-45EE-8A28-74B7195177F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hackers" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -55,118 +55,28 @@
     <t>Prio 3</t>
   </si>
   <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Fischer</t>
-  </si>
-  <si>
-    <t>Carlo</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Wegner</t>
-  </si>
-  <si>
-    <t>Emilie</t>
-  </si>
-  <si>
-    <t>Cousin</t>
-  </si>
-  <si>
-    <t>Isabella</t>
-  </si>
-  <si>
-    <t>Karcher</t>
-  </si>
-  <si>
-    <t>Luca</t>
-  </si>
-  <si>
-    <t>Schweizer</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Schneider</t>
-  </si>
-  <si>
-    <t>Amelie</t>
-  </si>
-  <si>
-    <t>Lemmen</t>
-  </si>
-  <si>
-    <t>Vivian</t>
-  </si>
-  <si>
-    <t>Schader</t>
-  </si>
-  <si>
-    <t>Marietta</t>
-  </si>
-  <si>
-    <t>Ostendorf</t>
-  </si>
-  <si>
-    <t>Ekaterina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turdikulova </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruth-Maria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wanninger </t>
-  </si>
-  <si>
-    <t>Lara</t>
-  </si>
-  <si>
-    <t>Gattermann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felicitas </t>
-  </si>
-  <si>
-    <t>Tengen</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Brehm</t>
-  </si>
-  <si>
-    <t>Ch._1:_Website</t>
-  </si>
-  <si>
-    <t>Ch._2:_Enactus_Vereinsstrategie_und_Philosophie</t>
-  </si>
-  <si>
-    <t>Ch._3:_Workshopchallenge</t>
-  </si>
-  <si>
-    <t>Ch._4:_Projektstrategie</t>
-  </si>
-  <si>
-    <t>Ch._5:_Online_Recruiting_Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ch._6:_Enactus_How_To </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ch._6:_Enactus_How_To </t>
-  </si>
-  <si>
-    <t>Ch._6:_Enactus_How_To</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
   </si>
 </sst>
 </file>
@@ -547,16 +457,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3A22D5-BE16-4A1D-A84B-110E41FE0265}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10.05078125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="38.05078125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -578,258 +488,118 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -841,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DA29B9-8F9F-4327-8EE8-3CCE063D3B0F}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -854,32 +624,32 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
